--- a/RESULTS/SET 1 [0..5] Single/100.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/100.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,40 +86,112 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>010155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>131155</t>
+  </si>
+  <si>
+    <t>013111</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>010055</t>
+  </si>
+  <si>
+    <t>O-O</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>030155</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>020155</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
     <t>020055</t>
   </si>
   <si>
-    <t>O-O</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>002100</t>
   </si>
   <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>001101</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>050055</t>
-  </si>
-  <si>
-    <t>005100</t>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>080155</t>
+  </si>
+  <si>
+    <t>008101</t>
   </si>
   <si>
     <t>091155</t>
@@ -131,22 +200,34 @@
     <t>009111</t>
   </si>
   <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
+    <t>110055</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
   </si>
   <si>
     <t>151155</t>
@@ -155,160 +236,22 @@
     <t>015111</t>
   </si>
   <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>030055</t>
-  </si>
-  <si>
-    <t>003100</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>100155</t>
-  </si>
-  <si>
-    <t>010101</t>
-  </si>
-  <si>
-    <t>080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>040055</t>
-  </si>
-  <si>
-    <t>004100</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>081155</t>
-  </si>
-  <si>
-    <t>008111</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>140155</t>
-  </si>
-  <si>
-    <t>014101</t>
-  </si>
-  <si>
-    <t>060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>070055</t>
-  </si>
-  <si>
-    <t>007100</t>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>041155</t>
+  </si>
+  <si>
+    <t>004111</t>
   </si>
   <si>
     <t>090055</t>
   </si>
   <si>
     <t>009100</t>
-  </si>
-  <si>
-    <t>071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>120155</t>
-  </si>
-  <si>
-    <t>012101</t>
   </si>
 </sst>
 </file>
@@ -732,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -741,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -750,33 +693,33 @@
         <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.846574481798322</v>
+        <v>0.08509271414621565</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.04041150634682e-07</v>
+        <v>3.859809579886518e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006356423134394704</v>
+        <v>0.0006212736578905078</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9210187421801024</v>
+        <v>0.9223944597988738</v>
       </c>
       <c r="O2" t="n">
-        <v>0.919286697052473</v>
+        <v>0.9206925839172702</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>60.80510438514204</v>
+        <v>84.43324662529493</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -809,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.183623437194641</v>
+        <v>-0.2443224821460425</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -828,23 +771,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
@@ -852,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1771762715547145</v>
+        <v>478041.4431692045</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -871,31 +814,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.77041771280047</v>
+        <v>-1081589.08594098</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -914,23 +857,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
@@ -938,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1134.680419768103</v>
+        <v>954122.0794327394</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -960,10 +903,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>-11</v>
@@ -972,7 +915,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -981,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-34859.21717533039</v>
+        <v>-398845.1715998568</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1000,16 +943,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1018,13 +961,13 @@
         <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>117029.6569140857</v>
+        <v>0.5165163052964488</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1043,16 +986,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1067,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-125395.0716062287</v>
+        <v>70463.23732068535</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1086,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1110,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>51371.98449445688</v>
+        <v>-1064.363453830329</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1129,16 +1072,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1153,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2976052687008632</v>
+        <v>0.6127791129183606</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1172,16 +1115,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1190,13 +1133,13 @@
         <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3789.979825905833</v>
+        <v>-0.4973483892390504</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1215,16 +1158,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1233,13 +1176,13 @@
         <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-90266.56017712044</v>
+        <v>0.4168071370804682</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1258,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
         <v>-7</v>
@@ -1276,13 +1219,13 @@
         <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.355841047108697</v>
+        <v>24.95768817554926</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1301,16 +1244,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1319,13 +1262,13 @@
         <v>51</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.749956838611979</v>
+        <v>-0.6175434524193406</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1344,16 +1287,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1362,13 +1305,13 @@
         <v>53</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1405322539212648</v>
+        <v>-5631.964300232749</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1471,10 +1414,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1483,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1492,27 +1435,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0634717339237999</v>
+        <v>0.06441524939745216</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.489261465908496e-07</v>
+        <v>4.343835019279718e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006700195120971102</v>
+        <v>0.0006590777662218411</v>
       </c>
       <c r="N2" t="n">
-        <v>0.912244701634256</v>
+        <v>0.9126626181321402</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9114849155012192</v>
+        <v>0.9119064503237605</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>134.658846636906</v>
+        <v>172.195488116706</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1545,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1229738981143049</v>
+        <v>-0.1247492305122879</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1567,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1579,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1588,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2391035066518525</v>
+        <v>0.243299460690365</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1610,10 +1553,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>-15</v>
@@ -1622,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1631,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>17898.97540464281</v>
+        <v>17035.46314282752</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1650,22 +1593,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1674,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.880109520802896</v>
+        <v>-0.04746275132744295</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1693,22 +1636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1717,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.564345925650312</v>
+        <v>0.8440588032804228</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1841,27 +1784,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1183193751327108</v>
+        <v>-0.121204609549186</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.642960578867778e-07</v>
+        <v>4.493466959351567e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006813927339550796</v>
+        <v>0.0006703332722871189</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9092402182423396</v>
+        <v>0.9096541102510443</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9085863293247772</v>
+        <v>0.9090032032643803</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>162.0502382738419</v>
+        <v>201.1087843269086</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1870,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1885,16 +1828,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.242396954677349</v>
+        <v>0.05923612611592334</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1913,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1928,16 +1871,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05781658131542428</v>
+        <v>0.2479192792273428</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1956,22 +1899,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1980,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4333.026482268234</v>
+        <v>1484.666217758734</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1999,22 +1942,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2023,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-8.200832022153326</v>
+        <v>-179.2484237071956</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2036,666 +1979,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.126943373799893</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>6.090786094730668e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007804348848386178</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8809383781532877</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8802531314088462</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>427.3553737050061</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06184856507855191</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2589280686729114</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.93462138444192</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.08192198676046464</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.148611618999271e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001071732997998695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7754714086112089</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.774503612958671</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1419.933808720812</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03976862019204823</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1671620376923499</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01664612883784652</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.147804884833352e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001465539110646097</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5801508557002477</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5789461235788711</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>3262.54557845427</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003656581658974928</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2783,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2798,7 +2081,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -2807,27 +2090,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1190245043695863</v>
+        <v>0.0820794130654514</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.076145698243596e-07</v>
+        <v>3.865594410989815e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006384469984457282</v>
+        <v>0.0006217390458214616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9203202164436145</v>
+        <v>0.9222781496717931</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9186917245169146</v>
+        <v>0.9206896738986619</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>66.34479243933586</v>
+        <v>84.66695507249318</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2836,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -2851,7 +2134,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -2860,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1333212659714296</v>
+        <v>-0.2200271369757898</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2879,22 +2162,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2903,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1961176996673797</v>
+        <v>0.6333345252295146</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2922,22 +2205,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2946,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.333869106976759</v>
+        <v>18.77032499042547</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2965,22 +2248,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2989,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-22.22214832287322</v>
+        <v>0.4596641884446206</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3008,22 +2291,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3032,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>472.165102191669</v>
+        <v>-0.3587743283124689</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3051,23 +2334,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -3075,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-62647.14784373171</v>
+        <v>567399.2254512142</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3097,10 +2380,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>-13</v>
@@ -3109,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3118,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>270531.191511268</v>
+        <v>-1336409.188982451</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3137,22 +2420,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3161,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-417538.5284916298</v>
+        <v>1256773.490292503</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3180,22 +2463,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3204,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>224527.8055714869</v>
+        <v>0.3177288544829935</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3223,31 +2506,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>37736.59897470792</v>
+        <v>-590743.8748710897</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3266,31 +2549,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-81069.90795920565</v>
+        <v>139109.219288642</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3309,22 +2592,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3333,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.869669029663783</v>
+        <v>-13174.12628416504</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3352,31 +2635,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.020580954063917</v>
+        <v>-0.4825521293096244</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3476,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3491,36 +2774,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1228984921162909</v>
+        <v>0.2355994324117431</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.105244542422069e-07</v>
+        <v>3.930545693518039e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006407218228234519</v>
+        <v>0.0006269406426064623</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9197513973243958</v>
+        <v>0.9209722356718836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9182306512095521</v>
+        <v>0.919474624977619</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>70.69968615303921</v>
+        <v>96.50232596295525</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3529,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -3544,7 +2827,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3553,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1345044978930832</v>
+        <v>-0.1424333621225189</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3572,22 +2855,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3596,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1939197304234563</v>
+        <v>0.0730523629265674</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3615,22 +2898,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3639,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.882327450583784</v>
+        <v>387.0112391324317</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3658,31 +2941,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-11.02072035255</v>
+        <v>0.8131213548731888</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3701,23 +2984,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
@@ -3725,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>469.4833884907621</v>
+        <v>518195.7445463537</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3744,22 +3027,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3768,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-62966.73600083277</v>
+        <v>-1213857.892226347</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3787,22 +3070,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3811,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>272750.8287750148</v>
+        <v>1134064.83211375</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3830,22 +3113,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3854,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-422168.248174764</v>
+        <v>-528857.0369325696</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3873,22 +3156,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3897,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>227619.3695931368</v>
+        <v>123337.9595659871</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3916,31 +3199,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>33281.97392167872</v>
+        <v>-11542.31610067007</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3959,31 +3242,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-163377.3777382986</v>
+        <v>-0.1199946310371161</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4002,22 +3285,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -4026,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.532809838303365</v>
+        <v>0.08717630663886666</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4150,27 +3433,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1179655532560023</v>
+        <v>-0.1253155352198183</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.236232223225248e-07</v>
+        <v>3.961107014492904e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006508634436827165</v>
+        <v>0.0006293732608311942</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9171908730380712</v>
+        <v>0.9203577680992153</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9157444254055485</v>
+        <v>0.918966637410992</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>93.57969225086708</v>
+        <v>101.6235086427028</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4182,10 +3465,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4194,7 +3477,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4203,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1285197775009508</v>
+        <v>0.06154060404941572</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4222,31 +3505,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.184604066591395</v>
+        <v>0.2454053942770593</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4265,22 +3548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4289,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.798748074071097</v>
+        <v>5691.549956195287</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4308,31 +3591,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-11.0156313476986</v>
+        <v>444947.2785920674</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4351,23 +3634,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
@@ -4375,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>442.6900653649644</v>
+        <v>-1140273.787949801</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4394,22 +3677,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4418,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-59389.70212411942</v>
+        <v>1205515.416888487</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4437,16 +3720,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -4461,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>257471.327718995</v>
+        <v>-673123.7370521845</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4480,16 +3763,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -4504,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-398943.0449866595</v>
+        <v>209494.9463381961</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4523,16 +3806,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -4547,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>215363.1611125958</v>
+        <v>-34501.76112002111</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4566,31 +3849,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2285.202313496615</v>
+        <v>2354.247727243433</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4609,13 +3892,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>-15</v>
@@ -4624,16 +3907,16 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-35288.93131907305</v>
+        <v>2.956018288852647</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4757,27 +4040,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1180934931241218</v>
+        <v>-0.1238205920760117</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.247067680972845e-07</v>
+        <v>4.027536552722631e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006516953031112657</v>
+        <v>0.0006346287538965305</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9169790634041726</v>
+        <v>0.9190221322102085</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9156516937783672</v>
+        <v>0.9177274279286856</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>94.66956359166483</v>
+        <v>113.8138248725108</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4786,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -4795,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -4804,13 +4087,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8277282125570447</v>
+        <v>0.06108852211691386</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4829,13 +4112,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -4844,16 +4127,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09736610427655545</v>
+        <v>0.2420706682042787</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4872,22 +4155,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4896,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>384.5417972506865</v>
+        <v>17164.89335517339</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4915,31 +4198,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.144767067906574</v>
+        <v>414634.2076755818</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4958,23 +4241,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
@@ -4982,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3849855471291719</v>
+        <v>-1061160.049462955</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5001,22 +4284,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5025,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>123.6524183008563</v>
+        <v>1120368.660860138</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5044,22 +4327,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5068,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-48772.74071946277</v>
+        <v>-624763.3046010375</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5087,22 +4370,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5111,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>223500.8593505645</v>
+        <v>194203.9046931376</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5130,22 +4413,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5154,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-358100.3986314908</v>
+        <v>-31946.91156475307</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5173,22 +4456,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5197,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>197645.1033933134</v>
+        <v>2177.532754487299</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5297,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -5312,36 +4595,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2474191046123809</v>
+        <v>0.06350035096947734</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.33246725375104e-07</v>
+        <v>4.083545485507651e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006582148018505084</v>
+        <v>0.0006390262502830108</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9153096874842425</v>
+        <v>0.9178960135779525</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9140805102343766</v>
+        <v>0.9167043737169649</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>109.3503046821654</v>
+        <v>123.9903864442021</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5374,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1240593993382334</v>
+        <v>-0.1232363939741785</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5393,13 +4676,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5408,16 +4691,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06229971339647171</v>
+        <v>0.2407783538038641</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5436,22 +4719,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5460,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1158.415748122683</v>
+        <v>17168.67857036621</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5479,22 +4762,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5503,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.069744637342658</v>
+        <v>655464.8111742035</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5522,31 +4805,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.31209881351797</v>
+        <v>-1496428.539634091</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5565,22 +4848,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5589,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1189.684871635037</v>
+        <v>1357372.375706325</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5608,22 +4891,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5632,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5984.783224752707</v>
+        <v>-611863.3953963495</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5651,22 +4934,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5675,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-10009.6913833264</v>
+        <v>137241.134902428</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5694,22 +4977,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5718,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>5565.589408471583</v>
+        <v>-12283.51633080584</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5818,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -5833,36 +5116,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2480245238804334</v>
+        <v>0.06436744792082878</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.333769618267767e-07</v>
+        <v>4.228744364639301e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006583137259899543</v>
+        <v>0.0006502879642619338</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9152842290903365</v>
+        <v>0.9149766370599168</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9141792407741235</v>
+        <v>0.9138676366737418</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>108.7319177507007</v>
+        <v>151.7845569598442</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5895,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1241015619902564</v>
+        <v>-0.1263792411939579</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5914,13 +5197,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5929,16 +5212,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06218214726971114</v>
+        <v>0.247924321800737</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5957,22 +5240,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5981,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>581.6130887707465</v>
+        <v>5966.906982411647</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6000,31 +5283,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.522618924340025</v>
+        <v>-3124.84638034584</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6043,22 +5326,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6067,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-145.425687089038</v>
+        <v>17452.62381747151</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6086,23 +5369,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -6110,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>393.9035177391486</v>
+        <v>-32584.6674723482</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6129,22 +5412,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6153,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.130466238502962</v>
+        <v>20326.02349083573</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6172,22 +5455,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6196,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-427.7221831200802</v>
+        <v>2.200739027578056</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6296,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -6311,36 +5594,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2462354845332774</v>
+        <v>0.06362547670078404</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.366905275065675e-07</v>
+        <v>4.26226261919708e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006608256407756644</v>
+        <v>0.0006528600630454493</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9146364990637101</v>
+        <v>0.9143027172206817</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9136482096172698</v>
+        <v>0.9133105634403134</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>113.9308702096098</v>
+        <v>157.6095740387031</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6373,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1237654415807119</v>
+        <v>-0.1248676204060211</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6392,13 +5675,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6407,16 +5690,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06232759847154004</v>
+        <v>0.244866313470249</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6435,22 +5718,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6459,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>678.5740396354699</v>
+        <v>17182.76321900563</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6478,31 +5761,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-218.345472853812</v>
+        <v>-3207.572826977152</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6521,22 +5804,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6545,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.768155828256786</v>
+        <v>17967.95966097595</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6564,23 +5847,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -6588,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8329437937247366</v>
+        <v>-33633.67554290577</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6607,13 +5890,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>-15</v>
@@ -6631,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.267999080749648</v>
+        <v>21027.90115309951</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6734,10 +6017,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6746,7 +6029,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6755,27 +6038,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06424729480912612</v>
+        <v>0.0638750402507221</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.390200044595891e-07</v>
+        <v>4.299784102067636e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006625858468603061</v>
+        <v>0.0006557273901605481</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9141811369811027</v>
+        <v>0.9135483082564441</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9133130270950733</v>
+        <v>0.912673796923778</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>117.3465737783817</v>
+        <v>164.2453233571478</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6808,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1251452983705154</v>
+        <v>-0.1245968616830956</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6830,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6842,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -6851,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2443185702642593</v>
+        <v>0.2435389429770936</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6870,22 +6153,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6894,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5700.800985638239</v>
+        <v>17178.01212223229</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6916,10 +6199,10 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>-6</v>
@@ -6928,7 +6211,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6937,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4897965956292639</v>
+        <v>-0.3714889361860508</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6956,22 +6239,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6980,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.565202433080653</v>
+        <v>18.13062654688988</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6999,13 +6282,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>-14</v>
@@ -7014,7 +6297,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7023,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.191980843004698</v>
+        <v>-66.51366713564833</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
